--- a/graph_generation/results_prelim/gpt4/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt4/level_10/k_1.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -48,36 +48,34 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node J, and then from node node J to node 18? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S
- A 0 2 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 1 0 0 4 0 0 0 0 0 0 0 0 2 3 0
- E 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4
- K 4 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0
- Q 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- R 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- S 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0
+What is the least cost path to travel first from node A to node M, and then from node node M to node Q? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 5 1 0 0 0 0 0 0 0 0 0 3 2 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 5 0 0 0 0 3 0 0 0 0 0 5
+ F 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ K 0 0 0 0 3 0 0 0 0 0 0 3 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
+ O 0 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ P 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ Q 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
-    <t>Path from A to J: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J
-Path from J to S: J -&gt; S</t>
-  </si>
-  <si>
-    <t>Path from A to J: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J
-Path from J to S: J -&gt; S</t>
+    <t>Path from A to M: A -&gt; C -&gt; O -&gt; N -&gt; M
+Path from M to Q: M -&gt; L -&gt; K -&gt; E -&gt; Q</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node M is: A -&gt; C -&gt; E -&gt; K -&gt; L -&gt; M
+The least cost path from node M to node Q is: M -&gt; L -&gt; K -&gt; E -&gt; Q</t>
   </si>
   <si>
     <t>Wrong</t>
